--- a/biology/Médecine/Syndrome_d'Evans/Syndrome_d'Evans.xlsx
+++ b/biology/Médecine/Syndrome_d'Evans/Syndrome_d'Evans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Evans</t>
+          <t>Syndrome_d'Evans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome d'Evans est un trouble hématologique chronique rare associant une anémie hémolytique auto-immune, un purpura thrombocytopénique immunologique (PTI) et parfois une neutropénie auto-immune, sans étiologie connue[1].
-Sa prévalence en Europe est estimée à 1/1,000,000 d'individus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome d'Evans est un trouble hématologique chronique rare associant une anémie hémolytique auto-immune, un purpura thrombocytopénique immunologique (PTI) et parfois une neutropénie auto-immune, sans étiologie connue.
+Sa prévalence en Europe est estimée à 1/1,000,000 d'individus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Evans</t>
+          <t>Syndrome_d'Evans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anémie hémolytique est auto-immune. Elle correspond à la destruction des globules rouges (GR), provoquant la libération d'hémoglobine (Hb) dans le plasma sanguin, causant un raccourcissement de la durée de vie des globules rouges à moins de 120 jours.
-Cette destruction des hématies par les anticorps est accompagné dans un certain nombre de cas (10 % selon certaines sources[2]) d'une thrombopénie. Ainsi, le Syndrome d'Evans peut être considéré comme une complication de l'anémie hémolytique auto-immune.
-Cette baisse variable du nombre de plaquettes sanguines évolue parfois[3][source insuffisante], dans le cas du syndrome d'Evans, en un purpura. Ce purpura thrombopénique auto-immun s'accompagne habituellement de signes hémorragiques[4]. D'autres pathologies peuvent se rajouter.
+Cette destruction des hématies par les anticorps est accompagné dans un certain nombre de cas (10 % selon certaines sources) d'une thrombopénie. Ainsi, le Syndrome d'Evans peut être considéré comme une complication de l'anémie hémolytique auto-immune.
+Cette baisse variable du nombre de plaquettes sanguines évolue parfois[source insuffisante], dans le cas du syndrome d'Evans, en un purpura. Ce purpura thrombopénique auto-immun s'accompagne habituellement de signes hémorragiques. D'autres pathologies peuvent se rajouter.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Evans</t>
+          <t>Syndrome_d'Evans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il inclut principalement des microangiopathies telles que le purpura thrombotique thrombocytopénique (PTT), et le syndrome hémolytique et urémique (SHU)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il inclut principalement des microangiopathies telles que le purpura thrombotique thrombocytopénique (PTT), et le syndrome hémolytique et urémique (SHU).
 </t>
         </is>
       </c>
